--- a/615_Trade scheme for Gelusil 200ML.xlsx
+++ b/615_Trade scheme for Gelusil 200ML.xlsx
@@ -427,14 +427,14 @@
         <v>23/615/T1/2599</v>
       </c>
       <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D2" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E2" t="str">
-        <v>166</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
@@ -445,14 +445,14 @@
         <v>23/615/T1/2600</v>
       </c>
       <c r="C3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D3" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E3" t="str">
-        <v>352</v>
+        <v>35200</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
@@ -463,14 +463,14 @@
         <v>23/615/T1/2601</v>
       </c>
       <c r="C4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D4" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E4" t="str">
-        <v>13</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
@@ -481,14 +481,14 @@
         <v>23/615/T1/2602</v>
       </c>
       <c r="C5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D5" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E5" t="str">
-        <v>161</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
@@ -499,14 +499,14 @@
         <v>23/615/T1/2603</v>
       </c>
       <c r="C6" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D6" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E6" t="str">
-        <v>185</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
@@ -517,14 +517,14 @@
         <v>23/615/T1/2604</v>
       </c>
       <c r="C7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D7" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E7" t="str">
-        <v>424</v>
+        <v>42400</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
@@ -535,14 +535,14 @@
         <v>23/615/T1/2605</v>
       </c>
       <c r="C8" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D8" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E8" t="str">
-        <v>166</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
@@ -553,14 +553,14 @@
         <v>23/615/T1/2606</v>
       </c>
       <c r="C9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D9" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E9" t="str">
-        <v>108</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
@@ -571,14 +571,14 @@
         <v>23/615/T1/2607</v>
       </c>
       <c r="C10" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D10" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E10" t="str">
-        <v>56</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
@@ -589,14 +589,14 @@
         <v>23/615/T1/2608</v>
       </c>
       <c r="C11" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D11" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E11" t="str">
-        <v>85</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
@@ -607,14 +607,14 @@
         <v>23/615/T1/2609</v>
       </c>
       <c r="C12" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D12" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E12" t="str">
-        <v>74</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
@@ -625,14 +625,14 @@
         <v>23/615/T1/2610</v>
       </c>
       <c r="C13" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D13" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E13" t="str">
-        <v>14</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="14" xml:space="preserve">
@@ -643,14 +643,14 @@
         <v>23/615/T1/2611</v>
       </c>
       <c r="C14" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D14" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E14" t="str">
-        <v>628</v>
+        <v>62800</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
@@ -661,14 +661,14 @@
         <v>23/615/T1/2612</v>
       </c>
       <c r="C15" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D15" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E15" t="str">
-        <v>378</v>
+        <v>37800</v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
@@ -679,14 +679,14 @@
         <v>23/615/T1/2613</v>
       </c>
       <c r="C16" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D16" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E16" t="str">
-        <v>554</v>
+        <v>55400</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
@@ -697,14 +697,14 @@
         <v>23/615/T1/2614</v>
       </c>
       <c r="C17" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D17" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E17" t="str">
-        <v>92</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="18" xml:space="preserve">
@@ -715,14 +715,14 @@
         <v>23/615/T1/2615</v>
       </c>
       <c r="C18" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D18" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E18" t="str">
-        <v>99</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
@@ -733,14 +733,14 @@
         <v>23/615/T1/2616</v>
       </c>
       <c r="C19" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D19" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E19" t="str">
-        <v>351</v>
+        <v>35100</v>
       </c>
     </row>
     <row r="20" xml:space="preserve">
@@ -751,14 +751,14 @@
         <v>23/615/T1/2617</v>
       </c>
       <c r="C20" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D20" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E20" t="str">
-        <v>185</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="21" xml:space="preserve">
@@ -769,14 +769,14 @@
         <v>23/615/T1/2618</v>
       </c>
       <c r="C21" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D21" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E21" t="str">
-        <v>412</v>
+        <v>41200</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
@@ -787,14 +787,14 @@
         <v>23/615/T1/2619</v>
       </c>
       <c r="C22" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D22" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E22" t="str">
-        <v>375</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
@@ -805,14 +805,14 @@
         <v>23/615/T1/2620</v>
       </c>
       <c r="C23" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D23" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E23" t="str">
-        <v>322</v>
+        <v>32200</v>
       </c>
     </row>
     <row r="24" xml:space="preserve">
@@ -823,14 +823,14 @@
         <v>23/615/T1/2621</v>
       </c>
       <c r="C24" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D24" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E24" t="str">
-        <v>220</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
@@ -841,14 +841,14 @@
         <v>23/615/T1/2622</v>
       </c>
       <c r="C25" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D25" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E25" t="str">
-        <v>185</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
@@ -859,14 +859,14 @@
         <v>23/615/T1/2623</v>
       </c>
       <c r="C26" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D26" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E26" t="str">
-        <v>447</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
@@ -877,14 +877,14 @@
         <v>23/615/T1/2624</v>
       </c>
       <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D27" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E27" t="str">
-        <v>161</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="28" xml:space="preserve">
@@ -895,14 +895,14 @@
         <v>23/615/T1/2625</v>
       </c>
       <c r="C28" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D28" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E28" t="str">
-        <v>605</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="29" xml:space="preserve">
@@ -913,14 +913,14 @@
         <v>23/615/T1/2626</v>
       </c>
       <c r="C29" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D29" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E29" t="str">
-        <v>35</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
@@ -931,14 +931,14 @@
         <v>23/615/T1/2627</v>
       </c>
       <c r="C30" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D30" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E30" t="str">
-        <v>185</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
@@ -949,14 +949,14 @@
         <v>23/615/T1/2628</v>
       </c>
       <c r="C31" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D31" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E31" t="str">
-        <v>467</v>
+        <v>46700</v>
       </c>
     </row>
     <row r="32" xml:space="preserve">
@@ -967,14 +967,14 @@
         <v>23/615/T1/2629</v>
       </c>
       <c r="C32" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D32" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E32" t="str">
-        <v>722</v>
+        <v>72200</v>
       </c>
     </row>
     <row r="33" xml:space="preserve">
@@ -985,14 +985,14 @@
         <v>23/615/T1/2630</v>
       </c>
       <c r="C33" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D33" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E33" t="str">
-        <v>1376</v>
+        <v>137600</v>
       </c>
     </row>
     <row r="34" xml:space="preserve">
@@ -1003,14 +1003,14 @@
         <v>23/615/T1/2631</v>
       </c>
       <c r="C34" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D34" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E34" t="str">
-        <v>547</v>
+        <v>54700</v>
       </c>
     </row>
     <row r="35" xml:space="preserve">
@@ -1021,14 +1021,14 @@
         <v>23/615/T1/2632</v>
       </c>
       <c r="C35" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D35" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E35" t="str">
-        <v>380</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="36" xml:space="preserve">
@@ -1039,14 +1039,14 @@
         <v>23/615/T1/2633</v>
       </c>
       <c r="C36" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D36" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E36" t="str">
-        <v>447</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="37" xml:space="preserve">
@@ -1057,14 +1057,14 @@
         <v>23/615/T1/2634</v>
       </c>
       <c r="C37" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D37" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E37" t="str">
-        <v>246</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="38" xml:space="preserve">
@@ -1075,14 +1075,14 @@
         <v>23/615/T1/2635</v>
       </c>
       <c r="C38" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D38" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E38" t="str">
-        <v>408</v>
+        <v>40800</v>
       </c>
     </row>
     <row r="39" xml:space="preserve">
@@ -1093,14 +1093,14 @@
         <v>23/615/T1/2636</v>
       </c>
       <c r="C39" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D39" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E39" t="str">
-        <v>406</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="40" xml:space="preserve">
@@ -1111,14 +1111,14 @@
         <v>23/615/T1/2637</v>
       </c>
       <c r="C40" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D40" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E40" t="str">
-        <v>355</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="41" xml:space="preserve">
@@ -1129,14 +1129,14 @@
         <v>23/615/T1/2638</v>
       </c>
       <c r="C41" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D41" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E41" t="str">
-        <v>122</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="42" xml:space="preserve">
@@ -1147,14 +1147,14 @@
         <v>23/615/T1/2639</v>
       </c>
       <c r="C42" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D42" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E42" t="str">
-        <v>142</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="43" xml:space="preserve">
@@ -1165,14 +1165,14 @@
         <v>23/615/T1/2640</v>
       </c>
       <c r="C43" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D43" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E43" t="str">
-        <v>975</v>
+        <v>97500</v>
       </c>
     </row>
     <row r="44" xml:space="preserve">
@@ -1183,14 +1183,14 @@
         <v>23/615/T1/2641</v>
       </c>
       <c r="C44" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D44" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E44" t="str">
-        <v>873</v>
+        <v>87300</v>
       </c>
     </row>
     <row r="45" xml:space="preserve">
@@ -1201,14 +1201,14 @@
         <v>23/615/T1/2642</v>
       </c>
       <c r="C45" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D45" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E45" t="str">
-        <v>400</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="46" xml:space="preserve">
@@ -1219,14 +1219,14 @@
         <v>23/615/T1/2643</v>
       </c>
       <c r="C46" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D46" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E46" t="str">
-        <v>675</v>
+        <v>67500</v>
       </c>
     </row>
     <row r="47" xml:space="preserve">
@@ -1237,14 +1237,14 @@
         <v>23/615/T1/2644</v>
       </c>
       <c r="C47" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D47" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E47" t="str">
-        <v>404</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="48" xml:space="preserve">
@@ -1255,14 +1255,14 @@
         <v>23/615/T1/2645</v>
       </c>
       <c r="C48" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D48" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E48" t="str">
-        <v>662</v>
+        <v>66200</v>
       </c>
     </row>
     <row r="49" xml:space="preserve">
@@ -1273,14 +1273,14 @@
         <v>23/615/T1/2646</v>
       </c>
       <c r="C49" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D49" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E49" t="str">
-        <v>195</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="50" xml:space="preserve">
@@ -1291,14 +1291,14 @@
         <v>23/615/T1/2647</v>
       </c>
       <c r="C50" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D50" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E50" t="str">
-        <v>213</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="51" xml:space="preserve">
@@ -1309,14 +1309,14 @@
         <v>23/615/T1/2648</v>
       </c>
       <c r="C51" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D51" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E51" t="str">
-        <v>1111</v>
+        <v>111100</v>
       </c>
     </row>
     <row r="52" xml:space="preserve">
@@ -1327,14 +1327,14 @@
         <v>23/615/T1/2649</v>
       </c>
       <c r="C52" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D52" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E52" t="str">
-        <v>1058</v>
+        <v>105800</v>
       </c>
     </row>
     <row r="53" xml:space="preserve">
@@ -1345,14 +1345,14 @@
         <v>23/615/T1/2650</v>
       </c>
       <c r="C53" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:25-10-2023
-L</v>
+        <v xml:space="preserve">5-10-2023
+LR No.:2</v>
       </c>
       <c r="D53" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E53" t="str">
-        <v>344</v>
+        <v>34400</v>
       </c>
     </row>
     <row r="54" xml:space="preserve">
@@ -1363,14 +1363,14 @@
         <v>23/615/T1/2651</v>
       </c>
       <c r="C54" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D54" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E54" t="str">
-        <v>181</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="55" xml:space="preserve">
@@ -1381,14 +1381,14 @@
         <v>23/615/T1/2652</v>
       </c>
       <c r="C55" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D55" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E55" t="str">
-        <v>223</v>
+        <v>22300</v>
       </c>
     </row>
     <row r="56" xml:space="preserve">
@@ -1399,14 +1399,14 @@
         <v>23/615/T1/2653</v>
       </c>
       <c r="C56" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D56" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E56" t="str">
-        <v>213</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="57" xml:space="preserve">
@@ -1417,14 +1417,14 @@
         <v>23/615/T1/2654</v>
       </c>
       <c r="C57" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D57" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E57" t="str">
-        <v>43</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="58" xml:space="preserve">
@@ -1435,14 +1435,14 @@
         <v>23/615/T1/2655</v>
       </c>
       <c r="C58" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D58" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E58" t="str">
-        <v>196</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="59" xml:space="preserve">
@@ -1453,14 +1453,14 @@
         <v>23/615/T1/2656</v>
       </c>
       <c r="C59" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D59" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E59" t="str">
-        <v>213</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="60" xml:space="preserve">
@@ -1471,14 +1471,14 @@
         <v>23/615/T1/2657</v>
       </c>
       <c r="C60" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D60" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E60" t="str">
-        <v>199</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="61" xml:space="preserve">
@@ -1489,14 +1489,14 @@
         <v>23/615/T1/2658</v>
       </c>
       <c r="C61" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D61" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E61" t="str">
-        <v>106</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="62" xml:space="preserve">
@@ -1507,14 +1507,14 @@
         <v>23/615/T1/2659</v>
       </c>
       <c r="C62" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D62" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E62" t="str">
-        <v>307</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="63" xml:space="preserve">
@@ -1525,14 +1525,14 @@
         <v>23/615/T1/2660</v>
       </c>
       <c r="C63" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D63" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E63" t="str">
-        <v>131</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="64" xml:space="preserve">
@@ -1543,14 +1543,14 @@
         <v>23/615/T1/2661</v>
       </c>
       <c r="C64" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D64" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E64" t="str">
-        <v>181</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="65" xml:space="preserve">
@@ -1561,14 +1561,14 @@
         <v>23/615/T1/2662</v>
       </c>
       <c r="C65" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D65" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E65" t="str">
-        <v>354</v>
+        <v>35400</v>
       </c>
     </row>
     <row r="66" xml:space="preserve">
@@ -1579,14 +1579,14 @@
         <v>23/615/T1/2663</v>
       </c>
       <c r="C66" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D66" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E66" t="str">
-        <v>588</v>
+        <v>58800</v>
       </c>
     </row>
     <row r="67" xml:space="preserve">
@@ -1597,14 +1597,14 @@
         <v>23/615/T1/2664</v>
       </c>
       <c r="C67" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D67" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E67" t="str">
-        <v>325</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="68" xml:space="preserve">
@@ -1615,14 +1615,14 @@
         <v>23/615/T1/2665</v>
       </c>
       <c r="C68" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D68" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E68" t="str">
-        <v>171</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="69" xml:space="preserve">
@@ -1633,14 +1633,14 @@
         <v>23/615/T1/2666</v>
       </c>
       <c r="C69" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D69" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E69" t="str">
-        <v>128</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="70" xml:space="preserve">
@@ -1651,14 +1651,14 @@
         <v>23/615/T1/2667</v>
       </c>
       <c r="C70" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D70" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E70" t="str">
-        <v>233</v>
+        <v>23300</v>
       </c>
     </row>
     <row r="71" xml:space="preserve">
@@ -1669,14 +1669,14 @@
         <v>23/615/T1/2668</v>
       </c>
       <c r="C71" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D71" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E71" t="str">
-        <v>268</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="72" xml:space="preserve">
@@ -1687,14 +1687,14 @@
         <v>23/615/T1/2669</v>
       </c>
       <c r="C72" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D72" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E72" t="str">
-        <v>391</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="73" xml:space="preserve">
@@ -1705,14 +1705,14 @@
         <v>23/615/T1/2670</v>
       </c>
       <c r="C73" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D73" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E73" t="str">
-        <v>23</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="74" xml:space="preserve">
@@ -1723,14 +1723,14 @@
         <v>23/615/T1/2671</v>
       </c>
       <c r="C74" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D74" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E74" t="str">
-        <v>613</v>
+        <v>61300</v>
       </c>
     </row>
     <row r="75" xml:space="preserve">
@@ -1741,14 +1741,14 @@
         <v>23/615/T1/2672</v>
       </c>
       <c r="C75" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D75" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E75" t="str">
-        <v>334</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="76" xml:space="preserve">
@@ -1759,14 +1759,14 @@
         <v>23/615/T1/2673</v>
       </c>
       <c r="C76" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D76" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E76" t="str">
-        <v>218</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="77" xml:space="preserve">
@@ -1777,14 +1777,14 @@
         <v>23/615/T1/2674</v>
       </c>
       <c r="C77" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D77" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E77" t="str">
-        <v>240</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="78" xml:space="preserve">
@@ -1795,14 +1795,14 @@
         <v>23/615/T1/2675</v>
       </c>
       <c r="C78" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D78" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E78" t="str">
-        <v>18</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="79" xml:space="preserve">
@@ -1813,14 +1813,14 @@
         <v>23/615/T1/2676</v>
       </c>
       <c r="C79" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D79" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E79" t="str">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="80" xml:space="preserve">
@@ -1831,14 +1831,14 @@
         <v>23/615/T1/2677</v>
       </c>
       <c r="C80" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D80" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E80" t="str">
-        <v>299</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="81" xml:space="preserve">
@@ -1849,14 +1849,14 @@
         <v>23/615/T1/2678</v>
       </c>
       <c r="C81" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D81" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E81" t="str">
-        <v>274</v>
+        <v>27400</v>
       </c>
     </row>
     <row r="82" xml:space="preserve">
@@ -1867,14 +1867,14 @@
         <v>23/615/T1/2679</v>
       </c>
       <c r="C82" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D82" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E82" t="str">
-        <v>257</v>
+        <v>25700</v>
       </c>
     </row>
     <row r="83" xml:space="preserve">
@@ -1885,14 +1885,14 @@
         <v>23/615/T1/2680</v>
       </c>
       <c r="C83" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D83" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E83" t="str">
-        <v>178</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="84" xml:space="preserve">
@@ -1903,14 +1903,14 @@
         <v>23/615/T1/2681</v>
       </c>
       <c r="C84" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D84" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E84" t="str">
-        <v>85</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="85" xml:space="preserve">
@@ -1921,14 +1921,14 @@
         <v>23/615/T1/2682</v>
       </c>
       <c r="C85" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D85" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E85" t="str">
-        <v>177</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="86" xml:space="preserve">
@@ -1939,14 +1939,14 @@
         <v>23/615/T1/2683</v>
       </c>
       <c r="C86" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D86" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E86" t="str">
-        <v>383</v>
+        <v>38300</v>
       </c>
     </row>
     <row r="87" xml:space="preserve">
@@ -1957,14 +1957,14 @@
         <v>23/615/T1/2684</v>
       </c>
       <c r="C87" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D87" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E87" t="str">
-        <v>319</v>
+        <v>31900</v>
       </c>
     </row>
     <row r="88" xml:space="preserve">
@@ -1975,14 +1975,14 @@
         <v>23/615/T1/2685</v>
       </c>
       <c r="C88" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D88" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E88" t="str">
-        <v>468</v>
+        <v>46800</v>
       </c>
     </row>
     <row r="89" xml:space="preserve">
@@ -1993,14 +1993,14 @@
         <v>23/615/T1/2686</v>
       </c>
       <c r="C89" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D89" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E89" t="str">
-        <v>378</v>
+        <v>37800</v>
       </c>
     </row>
     <row r="90" xml:space="preserve">
@@ -2011,14 +2011,14 @@
         <v>23/615/T1/2687</v>
       </c>
       <c r="C90" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D90" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E90" t="str">
-        <v>99</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="91" xml:space="preserve">
@@ -2029,14 +2029,14 @@
         <v>23/615/T1/2688</v>
       </c>
       <c r="C91" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D91" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E91" t="str">
-        <v>159</v>
+        <v>15900</v>
       </c>
     </row>
     <row r="92" xml:space="preserve">
@@ -2047,14 +2047,14 @@
         <v>23/615/T1/2689</v>
       </c>
       <c r="C92" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D92" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E92" t="str">
-        <v>816</v>
+        <v>81600</v>
       </c>
     </row>
     <row r="93" xml:space="preserve">
@@ -2065,14 +2065,14 @@
         <v>23/615/T1/2690</v>
       </c>
       <c r="C93" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D93" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E93" t="str">
-        <v>213</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="94" xml:space="preserve">
@@ -2083,14 +2083,14 @@
         <v>23/615/T1/2691</v>
       </c>
       <c r="C94" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D94" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E94" t="str">
-        <v>203</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="95" xml:space="preserve">
@@ -2101,14 +2101,14 @@
         <v>23/615/T1/2692</v>
       </c>
       <c r="C95" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D95" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E95" t="str">
-        <v>543</v>
+        <v>54300</v>
       </c>
     </row>
     <row r="96" xml:space="preserve">
@@ -2119,14 +2119,14 @@
         <v>23/615/T1/2693</v>
       </c>
       <c r="C96" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D96" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E96" t="str">
-        <v>149</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="97" xml:space="preserve">
@@ -2137,14 +2137,14 @@
         <v>23/615/T1/2694</v>
       </c>
       <c r="C97" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D97" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E97" t="str">
-        <v>181</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="98" xml:space="preserve">
@@ -2155,14 +2155,14 @@
         <v>23/615/T1/2695</v>
       </c>
       <c r="C98" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D98" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E98" t="str">
-        <v>37</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="99" xml:space="preserve">
@@ -2173,14 +2173,14 @@
         <v>23/615/T1/2696</v>
       </c>
       <c r="C99" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D99" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E99" t="str">
-        <v>213</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="100" xml:space="preserve">
@@ -2191,14 +2191,14 @@
         <v>23/615/T1/2697</v>
       </c>
       <c r="C100" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D100" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E100" t="str">
-        <v>84</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="101" xml:space="preserve">
@@ -2209,14 +2209,14 @@
         <v>23/615/T1/2698</v>
       </c>
       <c r="C101" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D101" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E101" t="str">
-        <v>483</v>
+        <v>48300</v>
       </c>
     </row>
     <row r="102" xml:space="preserve">
@@ -2227,14 +2227,14 @@
         <v>23/615/T1/2699</v>
       </c>
       <c r="C102" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D102" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E102" t="str">
-        <v>306</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="103" xml:space="preserve">
@@ -2245,14 +2245,14 @@
         <v>23/615/T1/2700</v>
       </c>
       <c r="C103" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D103" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E103" t="str">
-        <v>327</v>
+        <v>32700</v>
       </c>
     </row>
     <row r="104" xml:space="preserve">
@@ -2263,14 +2263,14 @@
         <v>23/615/T1/2701</v>
       </c>
       <c r="C104" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D104" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E104" t="str">
-        <v>73</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="105" xml:space="preserve">
@@ -2281,14 +2281,14 @@
         <v>23/615/T1/2702</v>
       </c>
       <c r="C105" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D105" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E105" t="str">
-        <v>92</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="106" xml:space="preserve">
@@ -2299,14 +2299,14 @@
         <v>23/615/T1/2703</v>
       </c>
       <c r="C106" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D106" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E106" t="str">
-        <v>415</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="107" xml:space="preserve">
@@ -2317,14 +2317,14 @@
         <v>23/615/T1/2704</v>
       </c>
       <c r="C107" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D107" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E107" t="str">
-        <v>267</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="108" xml:space="preserve">
@@ -2335,14 +2335,14 @@
         <v>23/615/T1/2705</v>
       </c>
       <c r="C108" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D108" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E108" t="str">
-        <v>213</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="109" xml:space="preserve">
@@ -2353,14 +2353,14 @@
         <v>23/615/T1/2706</v>
       </c>
       <c r="C109" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D109" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E109" t="str">
-        <v>111</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="110" xml:space="preserve">
@@ -2371,14 +2371,14 @@
         <v>23/615/T1/2707</v>
       </c>
       <c r="C110" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D110" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E110" t="str">
-        <v>135</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="111" xml:space="preserve">
@@ -2389,14 +2389,14 @@
         <v>23/615/T1/2708</v>
       </c>
       <c r="C111" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D111" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E111" t="str">
-        <v>159</v>
+        <v>15900</v>
       </c>
     </row>
     <row r="112" xml:space="preserve">
@@ -2407,14 +2407,14 @@
         <v>23/615/T1/2709</v>
       </c>
       <c r="C112" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D112" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E112" t="str">
-        <v>185</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="113" xml:space="preserve">
@@ -2425,14 +2425,14 @@
         <v>23/615/T1/2710</v>
       </c>
       <c r="C113" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D113" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E113" t="str">
-        <v>220</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="114" xml:space="preserve">
@@ -2443,14 +2443,14 @@
         <v>23/615/T1/2711</v>
       </c>
       <c r="C114" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D114" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E114" t="str">
-        <v>85</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="115" xml:space="preserve">
@@ -2461,14 +2461,14 @@
         <v>23/615/T1/2712</v>
       </c>
       <c r="C115" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D115" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E115" t="str">
-        <v>229</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="116" xml:space="preserve">
@@ -2479,14 +2479,14 @@
         <v>23/615/T1/2713</v>
       </c>
       <c r="C116" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D116" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E116" t="str">
-        <v>239</v>
+        <v>23900</v>
       </c>
     </row>
     <row r="117" xml:space="preserve">
@@ -2497,14 +2497,14 @@
         <v>23/615/T1/2714</v>
       </c>
       <c r="C117" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D117" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E117" t="str">
-        <v>611</v>
+        <v>61100</v>
       </c>
     </row>
     <row r="118" xml:space="preserve">
@@ -2515,14 +2515,14 @@
         <v>23/615/T1/2715</v>
       </c>
       <c r="C118" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D118" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E118" t="str">
-        <v>213</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="119" xml:space="preserve">
@@ -2533,14 +2533,14 @@
         <v>23/615/T1/2716</v>
       </c>
       <c r="C119" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D119" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E119" t="str">
-        <v>73</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="120" xml:space="preserve">
@@ -2551,14 +2551,14 @@
         <v>23/615/T1/2717</v>
       </c>
       <c r="C120" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D120" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E120" t="str">
-        <v>264</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="121" xml:space="preserve">
@@ -2569,14 +2569,14 @@
         <v>23/615/T1/2718</v>
       </c>
       <c r="C121" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D121" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E121" t="str">
-        <v>220</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="122" xml:space="preserve">
@@ -2587,14 +2587,14 @@
         <v>23/615/T1/2719</v>
       </c>
       <c r="C122" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D122" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E122" t="str">
-        <v>361</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="123" xml:space="preserve">
@@ -2605,14 +2605,14 @@
         <v>23/615/T1/2720</v>
       </c>
       <c r="C123" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D123" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E123" t="str">
-        <v>92</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="124" xml:space="preserve">
@@ -2623,14 +2623,14 @@
         <v>23/615/T1/2721</v>
       </c>
       <c r="C124" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D124" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E124" t="str">
-        <v>213</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="125" xml:space="preserve">
@@ -2641,14 +2641,14 @@
         <v>23/615/T1/2722</v>
       </c>
       <c r="C125" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D125" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E125" t="str">
-        <v>55</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="126" xml:space="preserve">
@@ -2659,14 +2659,14 @@
         <v>23/615/T1/2723</v>
       </c>
       <c r="C126" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D126" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E126" t="str">
-        <v>185</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="127" xml:space="preserve">
@@ -2677,14 +2677,14 @@
         <v>23/615/T1/2724</v>
       </c>
       <c r="C127" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D127" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E127" t="str">
-        <v>226</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="128" xml:space="preserve">
@@ -2695,14 +2695,14 @@
         <v>23/615/T1/2725</v>
       </c>
       <c r="C128" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D128" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E128" t="str">
-        <v>362</v>
+        <v>36200</v>
       </c>
     </row>
     <row r="129" xml:space="preserve">
@@ -2713,14 +2713,14 @@
         <v>23/615/T1/2726</v>
       </c>
       <c r="C129" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D129" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E129" t="str">
-        <v>185</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="130" xml:space="preserve">
@@ -2731,14 +2731,14 @@
         <v>23/615/T1/2727</v>
       </c>
       <c r="C130" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D130" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E130" t="str">
-        <v>281</v>
+        <v>28100</v>
       </c>
     </row>
     <row r="131" xml:space="preserve">
@@ -2749,14 +2749,14 @@
         <v>23/615/T1/2728</v>
       </c>
       <c r="C131" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D131" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E131" t="str">
-        <v>148</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="132" xml:space="preserve">
@@ -2767,14 +2767,14 @@
         <v>23/615/T1/2729</v>
       </c>
       <c r="C132" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D132" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E132" t="str">
-        <v>80</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="133" xml:space="preserve">
@@ -2785,14 +2785,14 @@
         <v>23/615/T1/2730</v>
       </c>
       <c r="C133" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D133" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E133" t="str">
-        <v>31</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="134" xml:space="preserve">
@@ -2803,14 +2803,14 @@
         <v>23/615/T1/2731</v>
       </c>
       <c r="C134" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D134" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E134" t="str">
-        <v>270</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="135" xml:space="preserve">
@@ -2821,14 +2821,14 @@
         <v>23/615/T1/2732</v>
       </c>
       <c r="C135" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D135" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E135" t="str">
-        <v>186</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="136" xml:space="preserve">
@@ -2839,14 +2839,14 @@
         <v>23/615/T1/2733</v>
       </c>
       <c r="C136" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D136" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E136" t="str">
-        <v>392</v>
+        <v>39200</v>
       </c>
     </row>
     <row r="137" xml:space="preserve">
@@ -2857,14 +2857,14 @@
         <v>23/615/T1/2734</v>
       </c>
       <c r="C137" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D137" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E137" t="str">
-        <v>153</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="138" xml:space="preserve">
@@ -2875,14 +2875,14 @@
         <v>23/615/T1/2735</v>
       </c>
       <c r="C138" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D138" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E138" t="str">
-        <v>443</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="139" xml:space="preserve">
@@ -2893,14 +2893,14 @@
         <v>23/615/T1/2736</v>
       </c>
       <c r="C139" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D139" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E139" t="str">
-        <v>224</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="140" xml:space="preserve">
@@ -2911,14 +2911,14 @@
         <v>23/615/T1/2737</v>
       </c>
       <c r="C140" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D140" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E140" t="str">
-        <v>206</v>
+        <v>20600</v>
       </c>
     </row>
     <row r="141" xml:space="preserve">
@@ -2929,14 +2929,14 @@
         <v>23/615/T1/2738</v>
       </c>
       <c r="C141" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D141" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E141" t="str">
-        <v>295</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="142" xml:space="preserve">
@@ -2947,14 +2947,14 @@
         <v>23/615/T1/2739</v>
       </c>
       <c r="C142" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D142" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E142" t="str">
-        <v>43</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="143" xml:space="preserve">
@@ -2965,14 +2965,14 @@
         <v>23/615/T1/2740</v>
       </c>
       <c r="C143" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D143" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E143" t="str">
-        <v>442</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="144" xml:space="preserve">
@@ -2983,14 +2983,14 @@
         <v>23/615/T1/2741</v>
       </c>
       <c r="C144" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D144" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E144" t="str">
-        <v>111</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="145" xml:space="preserve">
@@ -3001,14 +3001,14 @@
         <v>23/615/T1/2742</v>
       </c>
       <c r="C145" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D145" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E145" t="str">
-        <v>410</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="146" xml:space="preserve">
@@ -3019,14 +3019,14 @@
         <v>23/615/T1/2743</v>
       </c>
       <c r="C146" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D146" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E146" t="str">
-        <v>625</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="147" xml:space="preserve">
@@ -3037,14 +3037,14 @@
         <v>23/615/T1/2744</v>
       </c>
       <c r="C147" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D147" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E147" t="str">
-        <v>710</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="148" xml:space="preserve">
@@ -3055,14 +3055,14 @@
         <v>23/615/T1/2745</v>
       </c>
       <c r="C148" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D148" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E148" t="str">
-        <v>588</v>
+        <v>58800</v>
       </c>
     </row>
     <row r="149" xml:space="preserve">
@@ -3073,14 +3073,14 @@
         <v>23/615/T1/2746</v>
       </c>
       <c r="C149" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D149" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E149" t="str">
-        <v>737</v>
+        <v>73700</v>
       </c>
     </row>
     <row r="150" xml:space="preserve">
@@ -3091,14 +3091,14 @@
         <v>23/615/T1/2747</v>
       </c>
       <c r="C150" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D150" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E150" t="str">
-        <v>457</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="151" xml:space="preserve">
@@ -3109,14 +3109,14 @@
         <v>23/615/T1/2748</v>
       </c>
       <c r="C151" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D151" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E151" t="str">
-        <v>361</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="152" xml:space="preserve">
@@ -3127,14 +3127,14 @@
         <v>23/615/T1/2749</v>
       </c>
       <c r="C152" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D152" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E152" t="str">
-        <v>98</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="153" xml:space="preserve">
@@ -3145,14 +3145,14 @@
         <v>23/615/T1/2750</v>
       </c>
       <c r="C153" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D153" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E153" t="str">
-        <v>306</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="154" xml:space="preserve">
@@ -3163,14 +3163,14 @@
         <v>23/615/T1/2751</v>
       </c>
       <c r="C154" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D154" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E154" t="str">
-        <v>129</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="155" xml:space="preserve">
@@ -3181,14 +3181,14 @@
         <v>23/615/T1/2752</v>
       </c>
       <c r="C155" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D155" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E155" t="str">
-        <v>161</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="156" xml:space="preserve">
@@ -3199,14 +3199,14 @@
         <v>23/615/T1/2753</v>
       </c>
       <c r="C156" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D156" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E156" t="str">
-        <v>269</v>
+        <v>26900</v>
       </c>
     </row>
     <row r="157" xml:space="preserve">
@@ -3217,14 +3217,14 @@
         <v>23/615/T1/2754</v>
       </c>
       <c r="C157" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D157" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E157" t="str">
-        <v>186</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="158" xml:space="preserve">
@@ -3235,14 +3235,14 @@
         <v>23/615/T1/2755</v>
       </c>
       <c r="C158" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D158" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E158" t="str">
-        <v>129</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="159" xml:space="preserve">
@@ -3253,14 +3253,14 @@
         <v>23/615/T1/2756</v>
       </c>
       <c r="C159" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D159" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E159" t="str">
-        <v>135</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="160" xml:space="preserve">
@@ -3271,14 +3271,14 @@
         <v>23/615/T1/2757</v>
       </c>
       <c r="C160" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D160" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E160" t="str">
-        <v>879</v>
+        <v>87900</v>
       </c>
     </row>
     <row r="161" xml:space="preserve">
@@ -3289,14 +3289,14 @@
         <v>23/615/T1/2758</v>
       </c>
       <c r="C161" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D161" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E161" t="str">
-        <v>611</v>
+        <v>61100</v>
       </c>
     </row>
     <row r="162" xml:space="preserve">
@@ -3307,14 +3307,14 @@
         <v>23/615/T1/2759</v>
       </c>
       <c r="C162" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dated:27-10-2023
-L</v>
+        <v xml:space="preserve">7-10-2023
+LR No.:2</v>
       </c>
       <c r="D162" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E162" t="str">
-        <v>884</v>
+        <v>88400</v>
       </c>
     </row>
   </sheetData>
